--- a/data/trans_dic/MCS12_SP_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.31247832299432</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.06015908299336955</v>
+        <v>0.06015908299336956</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.256806463048331</v>
@@ -697,7 +697,7 @@
         <v>0.3743835568058519</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06414449287512426</v>
+        <v>0.06414449287512425</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1295354221048677</v>
+        <v>0.1298329120648591</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2700602064720736</v>
+        <v>0.2675705396359315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2590977071283352</v>
+        <v>0.2533566763874676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0396194108202492</v>
+        <v>0.03969599622010754</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2067043665030609</v>
+        <v>0.2067796301606476</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4670289619085555</v>
+        <v>0.4637058346761654</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3817009156726614</v>
+        <v>0.3722107220157094</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05020751006142896</v>
+        <v>0.05114964237883715</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1800285884622135</v>
+        <v>0.1788304575303466</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3856617070849397</v>
+        <v>0.3862143181813459</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3333789305933825</v>
+        <v>0.3311703457783414</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.051211541282612</v>
+        <v>0.04892740040422024</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2240490593936172</v>
+        <v>0.2277416828342665</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3887799073415148</v>
+        <v>0.379049044812574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3723976796136363</v>
+        <v>0.3658629574437335</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08637397900904098</v>
+        <v>0.08883868979366462</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3190050389795871</v>
+        <v>0.3160470423534744</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.591924652973936</v>
+        <v>0.5941155205092346</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4973629345122985</v>
+        <v>0.4908270359862931</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09399024548001349</v>
+        <v>0.09336223188015189</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2543241594093772</v>
+        <v>0.2498934130275538</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4730954183571532</v>
+        <v>0.4712207099241221</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4176894886626114</v>
+        <v>0.4134196608485028</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08395218409162453</v>
+        <v>0.08071540583683894</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1541467126370185</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2422053364484915</v>
+        <v>0.2422053364484914</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3379745328309573</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2268771209760855</v>
+        <v>0.2276058113964262</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1192357991305737</v>
+        <v>0.1190781184959616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06061618270523073</v>
+        <v>0.06438176483990435</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1232788093909833</v>
+        <v>0.1258874342457173</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3670925079005429</v>
+        <v>0.3641168008894868</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2208907761283007</v>
+        <v>0.2181108187370148</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1269242844803036</v>
+        <v>0.121726863037667</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2113923343825211</v>
+        <v>0.2093118497908389</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.308841724432053</v>
+        <v>0.3091682113620141</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1789152436816217</v>
+        <v>0.1797405634245417</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1016047146079919</v>
+        <v>0.1011163268363997</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1771328825284271</v>
+        <v>0.1787823810785145</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3103146268155166</v>
+        <v>0.3103206123785286</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1890339721443428</v>
+        <v>0.18526936367459</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1107854381883537</v>
+        <v>0.1102318943708892</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1974890640181182</v>
+        <v>0.2003735423574791</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4510506454182847</v>
+        <v>0.4525192098224872</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3006569486839556</v>
+        <v>0.2988098387745015</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1925898103000231</v>
+        <v>0.1883479216688035</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2729480827090208</v>
+        <v>0.2758386185852347</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3706745541309928</v>
+        <v>0.3680824376593152</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2319509509101481</v>
+        <v>0.2322580064136484</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1440912380255169</v>
+        <v>0.1426425565049431</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2282665774326084</v>
+        <v>0.2263806687814816</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01785364725074451</v>
+        <v>0.01795509936588447</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1100088371373974</v>
+        <v>0.1133284758481725</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06940711067139216</v>
+        <v>0.07185195308604157</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1073464111565468</v>
+        <v>0.1081336243259376</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07029516575673611</v>
+        <v>0.07401832321550796</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1863996689410503</v>
+        <v>0.1956004127235018</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1111750660148145</v>
+        <v>0.1148904855460052</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1709925339628384</v>
+        <v>0.1665112504033847</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05198956933363456</v>
+        <v>0.05106210322831544</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1646151978320748</v>
+        <v>0.1644030241683044</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1004874326762268</v>
+        <v>0.09940856692710294</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1495802115343615</v>
+        <v>0.1490495726622152</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06231427291310956</v>
+        <v>0.06252014549145793</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.188707940878724</v>
+        <v>0.1950907423507466</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1327858850529756</v>
+        <v>0.1349718940766194</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1838177648938298</v>
+        <v>0.1795575937044379</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.137863510308201</v>
+        <v>0.1372869317646083</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.285585623086137</v>
+        <v>0.2854164834059174</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1900596451953487</v>
+        <v>0.1923070973752691</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2349141051060037</v>
+        <v>0.2345221947799296</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09192659038050649</v>
+        <v>0.09132563159962216</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2260472449919615</v>
+        <v>0.2279733340368477</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1509795296399495</v>
+        <v>0.1482547999229492</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2002020571920324</v>
+        <v>0.1980794281704482</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06963792350193093</v>
+        <v>0.06986923633530204</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1759289092275711</v>
+        <v>0.1872576759356528</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1556387792127974</v>
+        <v>0.1544265375019846</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09222874838094845</v>
+        <v>0.0940196933188807</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1311177632641229</v>
+        <v>0.131236989712063</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3705563916761198</v>
+        <v>0.3753705400319078</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2755277547034127</v>
+        <v>0.2736998339713546</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1826974385676463</v>
+        <v>0.1813470503316374</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1091289579304108</v>
+        <v>0.1078089318316906</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2906345930297352</v>
+        <v>0.2944491999170259</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.225767371285141</v>
+        <v>0.2289432762913691</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1482659499045057</v>
+        <v>0.1493383420579155</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1349896106431873</v>
+        <v>0.129833000507738</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2673231197364558</v>
+        <v>0.2705086133110989</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.241820545226044</v>
+        <v>0.2355148364735827</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1737908329487623</v>
+        <v>0.1774976611490489</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2056114828691265</v>
+        <v>0.203327552110623</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4776844099248879</v>
+        <v>0.4721596288812855</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3693570059975426</v>
+        <v>0.3698523469112917</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2641789651703089</v>
+        <v>0.2573548709687613</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1582001440385052</v>
+        <v>0.1574526733174728</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3582822754116983</v>
+        <v>0.3577057750160045</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2920732375231996</v>
+        <v>0.2924383637581195</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2066007653509819</v>
+        <v>0.2078840504059181</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2437000164519576</v>
+        <v>0.2467205342806223</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0881900438089137</v>
+        <v>0.08928982313663811</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3430399547673318</v>
+        <v>0.3466814578614641</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4139934937299903</v>
+        <v>0.4128484258002004</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3143287795314788</v>
+        <v>0.3205989660400093</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2554743636022481</v>
+        <v>0.2534380156979869</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4491444636044811</v>
+        <v>0.4414195429359227</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5438671373355409</v>
+        <v>0.5347362498595888</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.292571672659789</v>
+        <v>0.3001776584300977</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1825359163431118</v>
+        <v>0.1852459450587508</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4121487994785222</v>
+        <v>0.415269529714572</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4969733697556892</v>
+        <v>0.4974990829366007</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3728398117882494</v>
+        <v>0.3734629008134082</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.184086058599845</v>
+        <v>0.1867352729447449</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4784742302543264</v>
+        <v>0.4758012631740604</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5372558908408982</v>
+        <v>0.5408143721246785</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4558673191070081</v>
+        <v>0.4511692781163695</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3857634148806399</v>
+        <v>0.3849769423554974</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5778147041368662</v>
+        <v>0.5699543011401509</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6390186484309073</v>
+        <v>0.6361981713154993</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.387045088589153</v>
+        <v>0.3925313768722989</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.265698231371182</v>
+        <v>0.269838803466955</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5055978736262331</v>
+        <v>0.5059010274743848</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5752145697239422</v>
+        <v>0.5735242309611098</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2337854063731907</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1998760559811043</v>
+        <v>0.1998760559811042</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1007377867702285</v>
@@ -1377,7 +1377,7 @@
         <v>0.1782677578768052</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1773074380205615</v>
+        <v>0.1773074380205616</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02819943360769822</v>
+        <v>0.02854146780854813</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1236174152540605</v>
+        <v>0.1251156627481079</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08333101779052507</v>
+        <v>0.08581796574621682</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1207195855958849</v>
+        <v>0.1214291014088501</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1079400154283215</v>
+        <v>0.1122933507395636</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2109913637852036</v>
+        <v>0.2083086182252638</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1840017569714835</v>
+        <v>0.1849655385078552</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1645512013162805</v>
+        <v>0.1654301593762926</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07792794973852561</v>
+        <v>0.07634838570044543</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.181049946087907</v>
+        <v>0.176369078029291</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1473516832234483</v>
+        <v>0.1444684924482162</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1524342462251446</v>
+        <v>0.1537446018146987</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08122996669145227</v>
+        <v>0.08696545485261337</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.216207596540827</v>
+        <v>0.2152970073972462</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1634118913387642</v>
+        <v>0.161676838015882</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1916668706197971</v>
+        <v>0.1965304276934662</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1936703143321605</v>
+        <v>0.1978735596634755</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3111119342384884</v>
+        <v>0.3096566863391602</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2870541927843316</v>
+        <v>0.2845939567978878</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2344484979918214</v>
+        <v>0.2347869994381289</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1326484452109822</v>
+        <v>0.1254481050585525</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2499686739732241</v>
+        <v>0.2483311103541156</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2134802786084149</v>
+        <v>0.2140353560399127</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2037554206280771</v>
+        <v>0.2060843216029769</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.2534825911160656</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3149219268779734</v>
+        <v>0.3149219268779733</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1149052616493683</v>
+        <v>0.1157310151896228</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1600587727919199</v>
+        <v>0.1591012881099086</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1738470147906316</v>
+        <v>0.1742767734204504</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2170930334106803</v>
+        <v>0.2157523821911217</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1722708517019534</v>
+        <v>0.1724095231292359</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2080100536840752</v>
+        <v>0.20545114864978</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2644992746691777</v>
+        <v>0.2629154179184114</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3395971968226254</v>
+        <v>0.3383931503211077</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.15227666550896</v>
+        <v>0.1497887599728918</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1923690445946905</v>
+        <v>0.1927765659473819</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2290760805849528</v>
+        <v>0.2292062093210335</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2904781414170746</v>
+        <v>0.289827170696701</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1741527465326027</v>
+        <v>0.172726424101018</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2220865057813552</v>
+        <v>0.222414565510402</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2412185799630677</v>
+        <v>0.2446465741436896</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.293584642783846</v>
+        <v>0.2940709540158344</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2338027654245582</v>
+        <v>0.2354315958305294</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2774898738965738</v>
+        <v>0.2763672670054479</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3344787419564744</v>
+        <v>0.3341567959695396</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4047115746234837</v>
+        <v>0.4038701372087408</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1949508585376398</v>
+        <v>0.1936292921134862</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2381170631187259</v>
+        <v>0.2390437775451658</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2790681699525326</v>
+        <v>0.2786210769657737</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3426747175190533</v>
+        <v>0.3407034637814318</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.1900827694842094</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.2198337722725997</v>
+        <v>0.2198337722725998</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.3573565711999817</v>
@@ -1649,7 +1649,7 @@
         <v>0.2088442729469133</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.2589851257510264</v>
+        <v>0.2589851257510263</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2630197942285302</v>
+        <v>0.2649794164713914</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.300792416097643</v>
+        <v>0.2995167098681644</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1631973329933312</v>
+        <v>0.1634493620817082</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1915537702717885</v>
+        <v>0.1909362015580232</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.321023085482025</v>
+        <v>0.3239343974614596</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3557109696723372</v>
+        <v>0.3582465723878334</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.196903156683393</v>
+        <v>0.1961933190825845</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2679258866155526</v>
+        <v>0.2680373167478463</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3041662298058259</v>
+        <v>0.3035092243170538</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3395281387976706</v>
+        <v>0.337842682066193</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1873427450854674</v>
+        <v>0.1883548346613837</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2400917713476652</v>
+        <v>0.2391093725012309</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.332580030532282</v>
+        <v>0.3316082970189466</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3713731316034358</v>
+        <v>0.371943063192637</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2183104212478376</v>
+        <v>0.2198544869201398</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2485456602359636</v>
+        <v>0.248655256093889</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3911683845952371</v>
+        <v>0.3949143061625759</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4276246086523428</v>
+        <v>0.4264431062543174</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2566935502869889</v>
+        <v>0.257700741041883</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3242969563265501</v>
+        <v>0.3248973696096907</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3522381775525489</v>
+        <v>0.3512940373062186</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3876908714956924</v>
+        <v>0.387671423611997</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.23216293784393</v>
+        <v>0.2313092795274486</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2802795987764717</v>
+        <v>0.2786552649353708</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1732786090292094</v>
+        <v>0.1724801653234511</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2085679867192891</v>
+        <v>0.206689313518852</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.175776171615337</v>
+        <v>0.1743461693111342</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.182749458011709</v>
+        <v>0.1838368712158847</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2512254481176807</v>
+        <v>0.2499129579972557</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3121557966451844</v>
+        <v>0.310159459133678</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2522875846355306</v>
+        <v>0.2521310107500963</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2644302021651369</v>
+        <v>0.2645792947983531</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2174564544668633</v>
+        <v>0.2163032369262539</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2645889654742643</v>
+        <v>0.2653476587535326</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2188406940289223</v>
+        <v>0.2185015646067007</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2287554907899446</v>
+        <v>0.2294603576448223</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.200480537593351</v>
+        <v>0.2010159286557666</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2391548963825768</v>
+        <v>0.2384484213747543</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2028016049469306</v>
+        <v>0.2025525008157279</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2113502484598968</v>
+        <v>0.2094412376526402</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2819415622131851</v>
+        <v>0.2797816737309765</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3457045972580773</v>
+        <v>0.3426132049751353</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.282024611949249</v>
+        <v>0.2828648553389156</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2908677861580445</v>
+        <v>0.2914389901188402</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2373116122914047</v>
+        <v>0.2370823018040929</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2873984251039456</v>
+        <v>0.2872896069623712</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2398217258925491</v>
+        <v>0.2390986908604577</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2479045297472041</v>
+        <v>0.2481668419143679</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35364</v>
+        <v>35446</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>79597</v>
+        <v>78863</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>76113</v>
+        <v>74426</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12632</v>
+        <v>12657</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>53916</v>
+        <v>53936</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>134152</v>
+        <v>133197</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>110198</v>
+        <v>107458</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15869</v>
+        <v>16166</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>96108</v>
+        <v>95468</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>224449</v>
+        <v>224770</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>194181</v>
+        <v>192895</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>32515</v>
+        <v>31064</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>61168</v>
+        <v>62176</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>114588</v>
+        <v>111720</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>109396</v>
+        <v>107476</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>27540</v>
+        <v>28326</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>83209</v>
+        <v>82437</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>170027</v>
+        <v>170657</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>143590</v>
+        <v>141703</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29707</v>
+        <v>29508</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>135770</v>
+        <v>133405</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>275333</v>
+        <v>274242</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>243289</v>
+        <v>240802</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>53302</v>
+        <v>51247</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>111867</v>
+        <v>112227</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>60277</v>
+        <v>60197</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30464</v>
+        <v>32357</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>65296</v>
+        <v>66677</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>184996</v>
+        <v>183496</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>115695</v>
+        <v>114239</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>66392</v>
+        <v>63673</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>115216</v>
+        <v>114082</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>307923</v>
+        <v>308248</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>184156</v>
+        <v>185006</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>104212</v>
+        <v>103711</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>190363</v>
+        <v>192135</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>153008</v>
+        <v>153011</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>95562</v>
+        <v>93659</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>55678</v>
+        <v>55400</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>104602</v>
+        <v>106129</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>227307</v>
+        <v>228047</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>157474</v>
+        <v>156506</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>100741</v>
+        <v>98522</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>148765</v>
+        <v>150341</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>369571</v>
+        <v>366987</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>238745</v>
+        <v>239061</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>147788</v>
+        <v>146303</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>245316</v>
+        <v>243289</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5693</v>
+        <v>5725</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>35648</v>
+        <v>36724</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22111</v>
+        <v>22890</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>33714</v>
+        <v>33962</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>23578</v>
+        <v>24827</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>63566</v>
+        <v>66704</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>37389</v>
+        <v>38639</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>60090</v>
+        <v>58515</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>34015</v>
+        <v>33408</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>109480</v>
+        <v>109339</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>65807</v>
+        <v>65100</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>99544</v>
+        <v>99191</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19869</v>
+        <v>19934</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>61150</v>
+        <v>63218</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>42301</v>
+        <v>42997</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>57732</v>
+        <v>56394</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>46241</v>
+        <v>46048</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>97390</v>
+        <v>97333</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>63919</v>
+        <v>64675</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>82553</v>
+        <v>82415</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>60144</v>
+        <v>59751</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>150336</v>
+        <v>151617</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>98873</v>
+        <v>97088</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>133232</v>
+        <v>131820</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>24977</v>
+        <v>25060</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>65794</v>
+        <v>70031</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>57581</v>
+        <v>57132</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>33769</v>
+        <v>34424</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>48704</v>
+        <v>48749</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>144128</v>
+        <v>146001</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>106707</v>
+        <v>105999</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>76078</v>
+        <v>75516</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>79678</v>
+        <v>78714</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>221735</v>
+        <v>224645</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>170962</v>
+        <v>173367</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>116027</v>
+        <v>116866</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48417</v>
+        <v>46567</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>99974</v>
+        <v>101165</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>89465</v>
+        <v>87132</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>63632</v>
+        <v>64989</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>76376</v>
+        <v>75527</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>185796</v>
+        <v>183647</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>143046</v>
+        <v>143238</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>110008</v>
+        <v>107167</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>115506</v>
+        <v>114960</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>273345</v>
+        <v>272906</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>221172</v>
+        <v>221448</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>161677</v>
+        <v>162681</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>49546</v>
+        <v>50160</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>18751</v>
+        <v>18985</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>72457</v>
+        <v>73226</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>84940</v>
+        <v>84705</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>65276</v>
+        <v>66578</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>56100</v>
+        <v>55653</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>98177</v>
+        <v>96489</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>122445</v>
+        <v>120389</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>120240</v>
+        <v>123366</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>78894</v>
+        <v>80065</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>177145</v>
+        <v>178486</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>213852</v>
+        <v>214078</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>75801</v>
+        <v>75928</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>39140</v>
+        <v>39703</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>101064</v>
+        <v>100499</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>110230</v>
+        <v>110960</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>94669</v>
+        <v>93693</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>84710</v>
+        <v>84537</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>126303</v>
+        <v>124585</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>143867</v>
+        <v>143232</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>159066</v>
+        <v>161321</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>114837</v>
+        <v>116627</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>217310</v>
+        <v>217440</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>247520</v>
+        <v>246793</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>7637</v>
+        <v>7729</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>33869</v>
+        <v>34279</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>21926</v>
+        <v>22581</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>32622</v>
+        <v>32814</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>30023</v>
+        <v>31234</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>59084</v>
+        <v>58333</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>50254</v>
+        <v>50517</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>43400</v>
+        <v>43632</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>42779</v>
+        <v>41912</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>100304</v>
+        <v>97711</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>79016</v>
+        <v>77469</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>81397</v>
+        <v>82097</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>21998</v>
+        <v>23551</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>59237</v>
+        <v>58987</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>42997</v>
+        <v>42541</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>51794</v>
+        <v>53108</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>53868</v>
+        <v>55037</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>87121</v>
+        <v>86713</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>78399</v>
+        <v>77727</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>61836</v>
+        <v>61925</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>72818</v>
+        <v>68865</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>138486</v>
+        <v>137578</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>114476</v>
+        <v>114774</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>108801</v>
+        <v>110045</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>70670</v>
+        <v>71178</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>106085</v>
+        <v>105450</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>114141</v>
+        <v>114423</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>155139</v>
+        <v>154181</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>109947</v>
+        <v>110035</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>144328</v>
+        <v>142553</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>182847</v>
+        <v>181752</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>261273</v>
+        <v>260347</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>190840</v>
+        <v>187722</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>260976</v>
+        <v>261529</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>308761</v>
+        <v>308936</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>431064</v>
+        <v>430098</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>107109</v>
+        <v>106231</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>147196</v>
+        <v>147414</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>158374</v>
+        <v>160625</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>209801</v>
+        <v>210149</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>149217</v>
+        <v>150257</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>192537</v>
+        <v>191758</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>231223</v>
+        <v>231001</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>311370</v>
+        <v>310722</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>244321</v>
+        <v>242665</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>323039</v>
+        <v>324297</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>376143</v>
+        <v>375540</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>508523</v>
+        <v>505598</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>195633</v>
+        <v>197090</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>234347</v>
+        <v>233353</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>127063</v>
+        <v>127259</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>152547</v>
+        <v>152055</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>251525</v>
+        <v>253806</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>293054</v>
+        <v>295143</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>162675</v>
+        <v>162088</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>221963</v>
+        <v>222056</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>464555</v>
+        <v>463551</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>544247</v>
+        <v>541545</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>300638</v>
+        <v>302262</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>390105</v>
+        <v>388509</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>247371</v>
+        <v>246649</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>289336</v>
+        <v>289780</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>169973</v>
+        <v>171175</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>197933</v>
+        <v>198020</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>306485</v>
+        <v>309420</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>352300</v>
+        <v>351326</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>212072</v>
+        <v>212904</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>268664</v>
+        <v>269162</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>537975</v>
+        <v>536533</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>621449</v>
+        <v>621418</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>372563</v>
+        <v>371194</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>455403</v>
+        <v>452764</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>567755</v>
+        <v>565139</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>714716</v>
+        <v>708279</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>596646</v>
+        <v>591792</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>642383</v>
+        <v>646206</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>848940</v>
+        <v>844505</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1110747</v>
+        <v>1103643</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>894244</v>
+        <v>893689</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>982524</v>
+        <v>983078</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1447334</v>
+        <v>1439658</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1848177</v>
+        <v>1853477</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1518512</v>
+        <v>1516159</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1654069</v>
+        <v>1659166</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>656883</v>
+        <v>658637</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>819531</v>
+        <v>817110</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>688380</v>
+        <v>687534</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>742918</v>
+        <v>736208</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>952736</v>
+        <v>945437</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1230124</v>
+        <v>1219124</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>999648</v>
+        <v>1002626</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1080756</v>
+        <v>1082879</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1579485</v>
+        <v>1577958</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2007503</v>
+        <v>2006743</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1664097</v>
+        <v>1659080</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1792531</v>
+        <v>1794427</v>
       </c>
     </row>
     <row r="40">
